--- a/import_test/lp_test.xlsx
+++ b/import_test/lp_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6469E25D-A39A-BB4C-92C3-F27044624178}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51486EF7-199E-7143-9D16-1F28B7EAB277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="14180" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -697,7 +697,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -709,25 +715,19 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:BH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1098,392 +1098,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="26">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
     </row>
     <row r="2" spans="1:60" ht="16" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8" t="s">
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="4" t="s">
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:60">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2" t="s">
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2" t="s">
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="AZ3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BA3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BB3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BC3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2" t="s">
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="BH3" s="5"/>
+      <c r="BH3" s="7"/>
     </row>
     <row r="4" spans="1:60">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="3" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="10" t="s">
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BD4" s="10" t="s">
+      <c r="BD4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BE4" s="10" t="s">
+      <c r="BE4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BF4" s="10" t="s">
+      <c r="BF4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="6"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="8"/>
     </row>
     <row r="5" spans="1:60">
+      <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
         <v>40</v>
       </c>
@@ -1650,8 +1651,10 @@
       <c r="BG5" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="BH5" s="2"/>
     </row>
     <row r="6" spans="1:60">
+      <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
         <v>75</v>
       </c>
@@ -1818,8 +1821,10 @@
       <c r="BG6" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="BH6" s="2"/>
     </row>
     <row r="7" spans="1:60">
+      <c r="A7" s="2"/>
       <c r="B7" s="11" t="s">
         <v>101</v>
       </c>
@@ -1986,8 +1991,10 @@
       <c r="BG7" s="11" t="s">
         <v>127</v>
       </c>
+      <c r="BH7" s="2"/>
     </row>
     <row r="8" spans="1:60">
+      <c r="A8" s="2"/>
       <c r="B8" s="11" t="s">
         <v>128</v>
       </c>
@@ -2154,8 +2161,10 @@
       <c r="BG8" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="BH8" s="2"/>
     </row>
     <row r="9" spans="1:60">
+      <c r="A9" s="2"/>
       <c r="B9" s="11" t="s">
         <v>151</v>
       </c>
@@ -2322,9 +2331,43 @@
       <c r="BG9" s="11" t="s">
         <v>172</v>
       </c>
+      <c r="BH9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
     <mergeCell ref="A1:BH1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AO2"/>
@@ -2341,39 +2384,6 @@
     <mergeCell ref="AW3:AW4"/>
     <mergeCell ref="AX3:AX4"/>
     <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import_test/lp_test.xlsx
+++ b/import_test/lp_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51486EF7-199E-7143-9D16-1F28B7EAB277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BD52F2-D4BB-C441-84CE-BD0B92D7DFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="14180" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -687,17 +687,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,15 +726,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,13 +1045,12 @@
   <dimension ref="A1:BH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -1098,1240 +1094,1240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="26">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
     </row>
     <row r="2" spans="1:60" ht="16" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="6" t="s">
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:60">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9" t="s">
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9" t="s">
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AT3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AU3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="AV3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="AW3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="AX3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="AY3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AZ3" s="9" t="s">
+      <c r="AZ3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="BA3" s="9" t="s">
+      <c r="BA3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="BB3" s="9" t="s">
+      <c r="BB3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BC3" s="9" t="s">
+      <c r="BC3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9" t="s">
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="BH3" s="7"/>
+      <c r="BH3" s="9"/>
     </row>
     <row r="4" spans="1:60">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="2" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="2" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AI4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AK4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AL4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AM4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AN4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AO4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="3" t="s">
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="8"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="10"/>
     </row>
     <row r="5" spans="1:60">
-      <c r="A5" s="2"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="4">
         <v>26014</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="4">
         <v>35560</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="2">
         <v>13213445436</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="2">
         <v>26161</v>
       </c>
-      <c r="AB5" s="11" t="s">
+      <c r="AB5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AC5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AD5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AF5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AH5" s="11" t="s">
+      <c r="AH5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AI5" s="11" t="s">
+      <c r="AI5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AJ5" s="11" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK5" s="2">
         <v>18133641158</v>
       </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AL5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AM5" s="11" t="s">
+      <c r="AM5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN5" s="12" t="s">
+      <c r="AN5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AO5" s="13" t="s">
+      <c r="AO5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AP5" s="11" t="s">
+      <c r="AP5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AQ5" s="11" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR5" s="11" t="s">
+      <c r="AR5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS5" s="11" t="s">
+      <c r="AS5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AT5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AU5" s="11">
+      <c r="AU5" s="2">
         <v>35927</v>
       </c>
-      <c r="AV5" s="11" t="s">
+      <c r="AV5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AW5" s="11" t="s">
+      <c r="AW5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AX5" s="11">
+      <c r="AX5" s="2">
         <v>42900</v>
       </c>
-      <c r="AY5" s="11" t="s">
+      <c r="AY5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AZ5" s="13" t="s">
+      <c r="AZ5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BA5" s="11" t="s">
+      <c r="BA5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB5" s="11">
+      <c r="BB5" s="2">
         <v>13625845674</v>
       </c>
-      <c r="BC5" s="11" t="s">
+      <c r="BC5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BD5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BE5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BF5" s="11">
+      <c r="BF5" s="2">
         <v>18745862467</v>
       </c>
-      <c r="BG5" s="11" t="s">
+      <c r="BG5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BH5" s="2"/>
+      <c r="BH5" s="3"/>
     </row>
     <row r="6" spans="1:60">
-      <c r="A6" s="2"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>29437</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="4">
         <v>39708</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="2">
         <v>18464153541</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="2">
         <v>28546</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AB6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AD6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AF6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AH6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AI6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AK6" s="2">
         <v>12121554143</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AL6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="AM6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AN6" s="12" t="s">
+      <c r="AN6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AO6" s="13" t="s">
+      <c r="AO6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="AP6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="AR6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AS6" s="11" t="s">
+      <c r="AS6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AT6" s="11" t="s">
+      <c r="AT6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AU6" s="11">
+      <c r="AU6" s="2">
         <v>41238</v>
       </c>
-      <c r="AV6" s="11" t="s">
+      <c r="AV6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AW6" s="11" t="s">
+      <c r="AW6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AX6" s="11" t="s">
+      <c r="AX6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AY6" s="11" t="s">
+      <c r="AY6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AZ6" s="11" t="s">
+      <c r="AZ6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BA6" s="11" t="s">
+      <c r="BA6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BB6" s="13" t="s">
+      <c r="BB6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="BC6" s="11" t="s">
+      <c r="BC6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BD6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BE6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BF6" s="11">
+      <c r="BF6" s="2">
         <v>12151231541</v>
       </c>
-      <c r="BG6" s="11" t="s">
+      <c r="BG6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BH6" s="2"/>
+      <c r="BH6" s="3"/>
     </row>
     <row r="7" spans="1:60">
-      <c r="A7" s="2"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="4">
         <v>27102</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="4">
         <v>34355</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="2">
         <v>15456641542</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11" t="s">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="2">
         <v>18651</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AD7" s="11" t="s">
+      <c r="AD7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AF7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AH7" s="11" t="s">
+      <c r="AH7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AI7" s="11" t="s">
+      <c r="AI7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AK7" s="2">
         <v>12153415425</v>
       </c>
-      <c r="AL7" s="11" t="s">
+      <c r="AL7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AM7" s="11" t="s">
+      <c r="AM7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AN7" s="12" t="s">
+      <c r="AN7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AO7" s="13" t="s">
+      <c r="AO7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AP7" s="11" t="s">
+      <c r="AP7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AQ7" s="11" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="11" t="s">
+      <c r="AR7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS7" s="11" t="s">
+      <c r="AS7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AT7" s="11" t="s">
+      <c r="AT7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AU7" s="11">
+      <c r="AU7" s="2">
         <v>38089</v>
       </c>
-      <c r="AV7" s="11" t="s">
+      <c r="AV7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AW7" s="11" t="s">
+      <c r="AW7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AX7" s="11">
+      <c r="AX7" s="2">
         <v>41299</v>
       </c>
-      <c r="AY7" s="11" t="s">
+      <c r="AY7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AZ7" s="13" t="s">
+      <c r="AZ7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BA7" s="11" t="s">
+      <c r="BA7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BB7" s="11">
+      <c r="BB7" s="2">
         <v>13625481344</v>
       </c>
-      <c r="BC7" s="11" t="s">
+      <c r="BC7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BD7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BE7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BF7" s="11">
+      <c r="BF7" s="2">
         <v>15334564664</v>
       </c>
-      <c r="BG7" s="11" t="s">
+      <c r="BG7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BH7" s="2"/>
+      <c r="BH7" s="3"/>
     </row>
     <row r="8" spans="1:60">
-      <c r="A8" s="2"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="4">
         <v>23511</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="4">
         <v>29609</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="2">
         <v>12454454532</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11" t="s">
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Y8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="Z8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="2">
         <v>28625</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AB8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AC8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AD8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="11" t="s">
+      <c r="AE8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AF8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AG8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AH8" s="11" t="s">
+      <c r="AH8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AI8" s="11" t="s">
+      <c r="AI8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AJ8" s="11" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AK8" s="11">
+      <c r="AK8" s="2">
         <v>21545454521</v>
       </c>
-      <c r="AL8" s="11" t="s">
+      <c r="AL8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AM8" s="11" t="s">
+      <c r="AM8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AN8" s="12" t="s">
+      <c r="AN8" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AO8" s="13" t="s">
+      <c r="AO8" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AP8" s="11" t="s">
+      <c r="AP8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AQ8" s="11" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AR8" s="11" t="s">
+      <c r="AR8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS8" s="11" t="s">
+      <c r="AS8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AT8" s="11" t="s">
+      <c r="AT8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AU8" s="11">
+      <c r="AU8" s="2">
         <v>39767</v>
       </c>
-      <c r="AV8" s="11" t="s">
+      <c r="AV8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AW8" s="11" t="s">
+      <c r="AW8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AX8" s="11">
+      <c r="AX8" s="2">
         <v>43448</v>
       </c>
-      <c r="AY8" s="11" t="s">
+      <c r="AY8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AZ8" s="13" t="s">
+      <c r="AZ8" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="BA8" s="11" t="s">
+      <c r="BA8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BB8" s="11">
+      <c r="BB8" s="2">
         <v>13515456484</v>
       </c>
-      <c r="BC8" s="11" t="s">
+      <c r="BC8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BD8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BE8" s="11" t="s">
+      <c r="BE8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BF8" s="11">
+      <c r="BF8" s="2">
         <v>13625486584</v>
       </c>
-      <c r="BG8" s="11" t="s">
+      <c r="BG8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BH8" s="2"/>
+      <c r="BH8" s="3"/>
     </row>
     <row r="9" spans="1:60">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="4">
         <v>21047</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="4">
         <v>28563</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="2">
         <v>11215648647</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11" t="s">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="2">
         <v>27296</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AB9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AC9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AF9" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AH9" s="11" t="s">
+      <c r="AH9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AI9" s="11" t="s">
+      <c r="AI9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AJ9" s="11" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AK9" s="11">
+      <c r="AK9" s="2">
         <v>13645275845</v>
       </c>
-      <c r="AL9" s="11" t="s">
+      <c r="AL9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AM9" s="11" t="s">
+      <c r="AM9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AN9" s="12" t="s">
+      <c r="AN9" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AO9" s="13" t="s">
+      <c r="AO9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="AP9" s="11" t="s">
+      <c r="AP9" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AQ9" s="11" t="s">
+      <c r="AQ9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR9" s="11" t="s">
+      <c r="AR9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS9" s="11" t="s">
+      <c r="AS9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AT9" s="11" t="s">
+      <c r="AT9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AU9" s="11">
+      <c r="AU9" s="2">
         <v>38326</v>
       </c>
-      <c r="AV9" s="11" t="s">
+      <c r="AV9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AW9" s="11" t="s">
+      <c r="AW9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AX9" s="11">
+      <c r="AX9" s="2">
         <v>43480</v>
       </c>
-      <c r="AY9" s="11" t="s">
+      <c r="AY9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AZ9" s="13" t="s">
+      <c r="AZ9" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="BA9" s="11" t="s">
+      <c r="BA9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BB9" s="11">
+      <c r="BB9" s="2">
         <v>13445594341</v>
       </c>
-      <c r="BC9" s="11" t="s">
+      <c r="BC9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="BD9" s="11" t="s">
+      <c r="BD9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BE9" s="11" t="s">
+      <c r="BE9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BF9" s="11">
+      <c r="BF9" s="2">
         <v>13541389423</v>
       </c>
-      <c r="BG9" s="11" t="s">
+      <c r="BG9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BH9" s="2"/>
+      <c r="BH9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="49">

--- a/import_test/lp_test.xlsx
+++ b/import_test/lp_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/import_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BD52F2-D4BB-C441-84CE-BD0B92D7DFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72709AA-A3C3-4D97-BA61-7B7CC1A4ABD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="14180" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -706,6 +706,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,12 +726,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1045,354 +1045,362 @@
   <dimension ref="A1:BH9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="P9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="45" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="26">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
     </row>
-    <row r="2" spans="1:60" ht="16" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:60" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7" t="s">
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="8" t="s">
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AA3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11" t="s">
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11" t="s">
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AR3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AT3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AU3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AW3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AX3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AY3" s="11" t="s">
+      <c r="AY3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BA3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BB3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BC3" s="11" t="s">
+      <c r="BC3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11" t="s">
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="BH3" s="9"/>
+      <c r="BH3" s="11"/>
     </row>
-    <row r="4" spans="1:60">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1417,16 +1425,16 @@
       <c r="W4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
       <c r="AH4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1451,19 +1459,19 @@
       <c r="AO4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
       <c r="BC4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1476,10 +1484,10 @@
       <c r="BF4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="10"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="12"/>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>40</v>
@@ -1649,7 +1657,7 @@
       </c>
       <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -1819,7 +1827,7 @@
       </c>
       <c r="BH6" s="3"/>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>101</v>
@@ -1989,7 +1997,7 @@
       </c>
       <c r="BH7" s="3"/>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>128</v>
@@ -2159,7 +2167,7 @@
       </c>
       <c r="BH8" s="3"/>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>151</v>
@@ -2331,39 +2339,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
     <mergeCell ref="A1:BH1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AO2"/>
@@ -2380,6 +2355,39 @@
     <mergeCell ref="AW3:AW4"/>
     <mergeCell ref="AX3:AX4"/>
     <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
